--- a/data/trans_dic/P19C04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08516698185196124</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0432591811634513</v>
+        <v>0.04325918116345129</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09236086476549614</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08121001741786447</v>
+        <v>0.07882668456948015</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1055211382215833</v>
+        <v>0.1064417938649311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06421387163971227</v>
+        <v>0.06420445651602938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04304471555012567</v>
+        <v>0.03946905932921476</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05272768872021234</v>
+        <v>0.05378124916040593</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1006660465285474</v>
+        <v>0.0996732502904899</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05847252564982114</v>
+        <v>0.05921353340062387</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02011991994948556</v>
+        <v>0.02231756088283914</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07335918240910447</v>
+        <v>0.07508971674297112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1088506497477374</v>
+        <v>0.1097900184228763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06760511624141201</v>
+        <v>0.06842218736791567</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03791573572529153</v>
+        <v>0.03802210891735706</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1470954138093148</v>
+        <v>0.1458987637144153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1763890134857776</v>
+        <v>0.1760973568789518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1286028306161428</v>
+        <v>0.127760957296415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1373948494417843</v>
+        <v>0.1378300719107324</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1053091418176352</v>
+        <v>0.1078773449757386</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1691716718674931</v>
+        <v>0.1684628448177086</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1186689028846322</v>
+        <v>0.1179078641547312</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07451374797666666</v>
+        <v>0.07853343849403195</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1169079973655151</v>
+        <v>0.1156120612560114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1585245966844318</v>
+        <v>0.1579566409105748</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.111694837666799</v>
+        <v>0.1113514350033926</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09636510138344614</v>
+        <v>0.09726398425066933</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1430458684039072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1180197808290066</v>
+        <v>0.1180197808290065</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1087135737154573</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1133214950140024</v>
+        <v>0.1094858969498591</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1548208921728428</v>
+        <v>0.1510278985485372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1137113649681271</v>
+        <v>0.1136641866657967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08218908742030569</v>
+        <v>0.0847765320318537</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08236100296157149</v>
+        <v>0.08425300824983437</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09070950387776301</v>
+        <v>0.09384328242522305</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09587779168853879</v>
+        <v>0.09349195696683688</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0662517351938023</v>
+        <v>0.06548165964670161</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1067283420646478</v>
+        <v>0.105765882952754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1311742879389067</v>
+        <v>0.1305076649893924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.110481716763959</v>
+        <v>0.1101314718193499</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07913417489549755</v>
+        <v>0.07949001621799105</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1710435590778045</v>
+        <v>0.1695650314412924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2190673253685469</v>
+        <v>0.216447949853624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1777114871613273</v>
+        <v>0.1794943755606899</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1628939471516675</v>
+        <v>0.1635148776240624</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1361274078647174</v>
+        <v>0.1383485869980061</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1456972806452334</v>
+        <v>0.1494574374276455</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1528708665046311</v>
+        <v>0.1491240132783051</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1255579028025534</v>
+        <v>0.1202812425424615</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1471443430417981</v>
+        <v>0.1471035100292271</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1752261192673987</v>
+        <v>0.173334189050135</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1540926992811384</v>
+        <v>0.1531210094074956</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1276358022611028</v>
+        <v>0.131673622871023</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1049055322709846</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0901201604202887</v>
+        <v>0.09012016042028868</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.154307586418158</v>
@@ -969,7 +969,7 @@
         <v>0.1229902798202423</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1134606836971155</v>
+        <v>0.1134606836971156</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.152526911352266</v>
+        <v>0.1514909285708691</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1959699233101817</v>
+        <v>0.1916475880433967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1139099691930805</v>
+        <v>0.1157731915275925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.108044625164461</v>
+        <v>0.1091875367184844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1051870053036837</v>
+        <v>0.1050108991486752</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1162927367011567</v>
+        <v>0.1170549642422418</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08335073878000855</v>
+        <v>0.08190967832189035</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06870253906222232</v>
+        <v>0.07254526760447158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1339099360250474</v>
+        <v>0.1334117174833716</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1591228960266225</v>
+        <v>0.1631549692129291</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1060577956367893</v>
+        <v>0.1046052465017356</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09703856124953791</v>
+        <v>0.09656730729479533</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2211806154883721</v>
+        <v>0.2203982298419692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2663608252161721</v>
+        <v>0.2668963300024663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1750775746935862</v>
+        <v>0.1746276173636199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1665603388280622</v>
+        <v>0.1672563641444359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1613367373529423</v>
+        <v>0.1618840006316748</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1728563407680958</v>
+        <v>0.1734141399700662</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1316941376161194</v>
+        <v>0.131498407075205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1108015684778919</v>
+        <v>0.1137132239504907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1773905807605425</v>
+        <v>0.1767908809669949</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2043834058774186</v>
+        <v>0.2094831407158902</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1450879555664946</v>
+        <v>0.1423118464224662</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1321393923492712</v>
+        <v>0.1319660188927662</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1482820458469569</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1234192480303065</v>
+        <v>0.1234192480303066</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2326470617531616</v>
+        <v>0.2342344985650237</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2095185482400181</v>
+        <v>0.2131174363776604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1450514453536341</v>
+        <v>0.1501711322789013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1245328626796597</v>
+        <v>0.1272128216666555</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1627925846099606</v>
+        <v>0.1629925509987833</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1489626991025028</v>
+        <v>0.1447898284654448</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09165461423913501</v>
+        <v>0.0917933769973711</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07914651180911203</v>
+        <v>0.07969602640075361</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2083769226005582</v>
+        <v>0.2094457930962157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1881148683886062</v>
+        <v>0.1901312581801271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1273012876798819</v>
+        <v>0.1283257374649684</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1060905169442253</v>
+        <v>0.1077457747426634</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3212997123992215</v>
+        <v>0.3237859704577542</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2885934576913037</v>
+        <v>0.2897195819863555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2153310792264659</v>
+        <v>0.221921667380571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1823430437597363</v>
+        <v>0.1812899140465146</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2372708224825702</v>
+        <v>0.2398930685634374</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2186965146262377</v>
+        <v>0.2150495720129012</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1495163130460122</v>
+        <v>0.1486551301206311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1151927565864643</v>
+        <v>0.1142392851922393</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2648593495403275</v>
+        <v>0.2660551724246498</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.243929669120179</v>
+        <v>0.2422685346995275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1759710587199761</v>
+        <v>0.1749990687709351</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1390687550777265</v>
+        <v>0.1403225845319269</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2161300980825868</v>
+        <v>0.2157520886127187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2637437977702166</v>
+        <v>0.2689116567431621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2229497282866105</v>
+        <v>0.2170248965870751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1764051957467403</v>
+        <v>0.1761196111377712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.16184797652969</v>
+        <v>0.1583311034533335</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1781097055596994</v>
+        <v>0.1795877192712761</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1003620258500038</v>
+        <v>0.09867935835043144</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1162641477303138</v>
+        <v>0.115947763822845</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1975277281018281</v>
+        <v>0.1973477914800608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2386539260105911</v>
+        <v>0.2353415974570235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1681122917247424</v>
+        <v>0.1689569080005833</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1531779598114163</v>
+        <v>0.1539706959934865</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3220404465740929</v>
+        <v>0.3133154308671687</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3710300631212551</v>
+        <v>0.3692669841788209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3218105203670978</v>
+        <v>0.3175511347517276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2380947785923587</v>
+        <v>0.2375277063964751</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2486233019584845</v>
+        <v>0.2508565234144592</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2677008429521613</v>
+        <v>0.2671781653419158</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1705577613101622</v>
+        <v>0.170180635068502</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1594459805154566</v>
+        <v>0.1611751001963679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2647883111408038</v>
+        <v>0.2676667262714415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3031706180512582</v>
+        <v>0.3036565846295919</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2274844303954663</v>
+        <v>0.2311426682235418</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1936197851940955</v>
+        <v>0.1934745282277133</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2692334713283895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.228285919447557</v>
+        <v>0.2282859194475571</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.199294913209896</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2314586296815957</v>
+        <v>0.2387526088727736</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3260166401829291</v>
+        <v>0.3268046354579727</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2161731557202164</v>
+        <v>0.214936012835857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1943842122785278</v>
+        <v>0.1907142302625423</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1581454501960137</v>
+        <v>0.1551928267280339</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1899014453110269</v>
+        <v>0.1916851781838332</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1336750835869509</v>
+        <v>0.1348249574235474</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1346418114465662</v>
+        <v>0.1334496720458004</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2052162478909315</v>
+        <v>0.2112543115948335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2697823867410131</v>
+        <v>0.2637402968898376</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1817436504050258</v>
+        <v>0.1815803647139736</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.169502544469597</v>
+        <v>0.1720378534105625</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3539910105150059</v>
+        <v>0.359608433027662</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4555719273831664</v>
+        <v>0.4584675432679559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3280237471209967</v>
+        <v>0.3296874563554499</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.264314158607893</v>
+        <v>0.2642647761219286</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2577307969048274</v>
+        <v>0.2472679347614909</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2898210873200444</v>
+        <v>0.2872705388713789</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.225516921000676</v>
+        <v>0.2297677366412534</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1859459055091977</v>
+        <v>0.1836489442340749</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2817776368047165</v>
+        <v>0.2861135424005159</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3470565385279288</v>
+        <v>0.3488326515826174</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2594781960641793</v>
+        <v>0.2561921380368206</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2136300876849322</v>
+        <v>0.2140057397413445</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1797682769498711</v>
+        <v>0.1702634350058953</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3220433792824959</v>
+        <v>0.3280420393396255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2192112334437999</v>
+        <v>0.2160616984428101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2072217311462384</v>
+        <v>0.2113927320961346</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1180910918272189</v>
+        <v>0.1163698259431971</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.218019551096626</v>
+        <v>0.2194241864556374</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1854933026619271</v>
+        <v>0.1896497874659185</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.162530326567239</v>
+        <v>0.1650087488354699</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1526228980320115</v>
+        <v>0.1537530149927106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2773411569132082</v>
+        <v>0.2781966984904343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2185534159436275</v>
+        <v>0.2114409473383751</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.191799217978624</v>
+        <v>0.1892081823079989</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3402432963007334</v>
+        <v>0.3257391167469527</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4789671750056868</v>
+        <v>0.475447664167941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3524649898422339</v>
+        <v>0.3514026750597464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2890427922893741</v>
+        <v>0.2909899663572363</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2274020170889413</v>
+        <v>0.22626069557331</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3208287609903832</v>
+        <v>0.3198614505092284</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3227124319214256</v>
+        <v>0.3262316517953675</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2150568636191325</v>
+        <v>0.2168762979172756</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2421971052712916</v>
+        <v>0.2437459891348833</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3638312834567435</v>
+        <v>0.3607705433949742</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3143900473753641</v>
+        <v>0.3162914324553351</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2350460551057535</v>
+        <v>0.2364529069995906</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29187</v>
+        <v>28330</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40011</v>
+        <v>40360</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22657</v>
+        <v>22654</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16308</v>
+        <v>14953</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19839</v>
+        <v>20235</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37346</v>
+        <v>36978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20578</v>
+        <v>20839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6906</v>
+        <v>7660</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53967</v>
+        <v>55240</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>81656</v>
+        <v>82361</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>47646</v>
+        <v>48222</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27379</v>
+        <v>27456</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52866</v>
+        <v>52436</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66882</v>
+        <v>66772</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45376</v>
+        <v>45079</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52053</v>
+        <v>52217</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39623</v>
+        <v>40589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62761</v>
+        <v>62498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>41763</v>
+        <v>41495</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25576</v>
+        <v>26956</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>86004</v>
+        <v>85050</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>118920</v>
+        <v>118494</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>78719</v>
+        <v>78477</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69585</v>
+        <v>70234</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>65248</v>
+        <v>63040</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>92469</v>
+        <v>90204</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56069</v>
+        <v>56045</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36648</v>
+        <v>37801</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45110</v>
+        <v>46146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50593</v>
+        <v>52341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47624</v>
+        <v>46439</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31974</v>
+        <v>31602</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>119908</v>
+        <v>118827</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>151508</v>
+        <v>150738</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>109354</v>
+        <v>109008</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>73476</v>
+        <v>73807</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>98484</v>
+        <v>97632</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>130842</v>
+        <v>129277</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87626</v>
+        <v>88505</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72633</v>
+        <v>72910</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>74558</v>
+        <v>75775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>81262</v>
+        <v>83359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>75934</v>
+        <v>74073</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>60595</v>
+        <v>58049</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>165315</v>
+        <v>165269</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>202388</v>
+        <v>200203</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>152520</v>
+        <v>151559</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>118510</v>
+        <v>122259</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>76711</v>
+        <v>76190</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>114966</v>
+        <v>112430</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63546</v>
+        <v>64585</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>64819</v>
+        <v>65504</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63487</v>
+        <v>63381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76690</v>
+        <v>77192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47767</v>
+        <v>46941</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41722</v>
+        <v>44055</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>148171</v>
+        <v>147620</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>198284</v>
+        <v>203308</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>119945</v>
+        <v>118302</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>117146</v>
+        <v>116577</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111239</v>
+        <v>110846</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156261</v>
+        <v>156575</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>97669</v>
+        <v>97418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>99924</v>
+        <v>100341</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>97377</v>
+        <v>97708</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>113991</v>
+        <v>114359</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>75471</v>
+        <v>75359</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67288</v>
+        <v>69056</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>196282</v>
+        <v>195619</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>254683</v>
+        <v>261038</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>164086</v>
+        <v>160946</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>159519</v>
+        <v>159310</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>94163</v>
+        <v>94806</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>113735</v>
+        <v>115688</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74320</v>
+        <v>76943</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>84471</v>
+        <v>86288</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71496</v>
+        <v>71584</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>83918</v>
+        <v>81567</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>49941</v>
+        <v>50017</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>57125</v>
+        <v>57521</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>175856</v>
+        <v>176758</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>208091</v>
+        <v>210321</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>134590</v>
+        <v>135673</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>148533</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>130045</v>
+        <v>131052</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>156660</v>
+        <v>157271</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110330</v>
+        <v>113706</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>123683</v>
+        <v>122969</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>104206</v>
+        <v>105357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>123203</v>
+        <v>121148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81469</v>
+        <v>81000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>83141</v>
+        <v>82453</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>223524</v>
+        <v>224533</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>269833</v>
+        <v>267995</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>186046</v>
+        <v>185019</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>194704</v>
+        <v>196459</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58863</v>
+        <v>58760</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>95293</v>
+        <v>97160</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>82715</v>
+        <v>80517</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>104671</v>
+        <v>104501</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51643</v>
+        <v>50521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>69407</v>
+        <v>69983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39621</v>
+        <v>38957</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>69276</v>
+        <v>69087</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>116824</v>
+        <v>116718</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>179228</v>
+        <v>176741</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>128737</v>
+        <v>129384</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>182160</v>
+        <v>183103</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87707</v>
+        <v>85331</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>134057</v>
+        <v>133420</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>119392</v>
+        <v>117812</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>141275</v>
+        <v>140938</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>79331</v>
+        <v>80044</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>104320</v>
+        <v>104116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>67333</v>
+        <v>67184</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>95006</v>
+        <v>96036</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>156604</v>
+        <v>158306</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>227680</v>
+        <v>228045</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>174203</v>
+        <v>177004</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>230253</v>
+        <v>230081</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>49246</v>
+        <v>50798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>85576</v>
+        <v>85783</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49747</v>
+        <v>49462</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>77315</v>
+        <v>75855</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>39052</v>
+        <v>38323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>57082</v>
+        <v>57618</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>37021</v>
+        <v>37340</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57751</v>
+        <v>57240</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>94339</v>
+        <v>97114</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>151909</v>
+        <v>148507</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>92157</v>
+        <v>92075</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>140122</v>
+        <v>142218</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>75317</v>
+        <v>76512</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>119583</v>
+        <v>120343</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>75486</v>
+        <v>75869</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>105129</v>
+        <v>105110</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>63644</v>
+        <v>61060</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>87117</v>
+        <v>86350</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>62456</v>
+        <v>63634</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>79757</v>
+        <v>78772</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>129534</v>
+        <v>131527</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>195420</v>
+        <v>196420</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>131575</v>
+        <v>129908</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>176601</v>
+        <v>176912</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22788</v>
+        <v>21583</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>59554</v>
+        <v>60664</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>32237</v>
+        <v>31773</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>62666</v>
+        <v>63927</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24588</v>
+        <v>24229</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>66148</v>
+        <v>66574</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>42270</v>
+        <v>43217</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>72454</v>
+        <v>73559</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>51124</v>
+        <v>51503</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>135434</v>
+        <v>135852</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>81944</v>
+        <v>79277</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>143503</v>
+        <v>141565</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>43131</v>
+        <v>41292</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>88573</v>
+        <v>87923</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>51832</v>
+        <v>51676</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>87409</v>
+        <v>87998</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47347</v>
+        <v>47109</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>97341</v>
+        <v>97048</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>73539</v>
+        <v>74341</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>95869</v>
+        <v>96680</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>81129</v>
+        <v>81648</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>177670</v>
+        <v>176175</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>117876</v>
+        <v>118589</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>175861</v>
+        <v>176913</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
     </row>
     <row r="36">
